--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89912.1766918042</v>
+        <v>87507.51979283328</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>342.538560797735</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>288.9586234029661</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>275.4160034162173</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>144.8247369555759</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>15.47046059858766</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>280.6069641540612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>346.0856206951207</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>281.9408634908491</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.533183649868</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>117.7126336312586</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>17.794336319245</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>46.27144787880221</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>163.0860508096772</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414546</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.556204901371072</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>188.4885988745608</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>115.4698969420354</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892423</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>194.8854593259659</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>65.31126771337647</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238267</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365876</v>
+        <v>111.5577353751416</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699836</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>44.30292280757614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>109.8058856274572</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>9.795251606878745</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>103.1686991936175</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.569348694474</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.570802434136</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D2" t="n">
-        <v>1145.570802434136</v>
+        <v>647.5303816266027</v>
       </c>
       <c r="E2" t="n">
-        <v>759.7825498358914</v>
+        <v>261.7421290283584</v>
       </c>
       <c r="F2" t="n">
-        <v>481.584566587187</v>
+        <v>254.796628279155</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265602</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995487</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734407</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758596</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,46 +4413,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.0287918074551</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>631.4698357812249</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X4" t="n">
-        <v>631.4698357812249</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y4" t="n">
-        <v>410.6772566376948</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.03887196831</v>
+        <v>1243.280836875046</v>
       </c>
       <c r="C5" t="n">
-        <v>869.0763550278987</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="D5" t="n">
-        <v>869.0763550278987</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>869.0763550278987</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>458.0904502382911</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883009</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539438</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269324</v>
+        <v>2393.48576717606</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008244</v>
+        <v>2020.02000891498</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032432</v>
+        <v>1629.880676939168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529.5785797246257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>360.6423967967188</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967188</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450119</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450119</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450119</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>711.2270445548654</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W7" t="n">
-        <v>711.2270445548654</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>711.2270445548654</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>711.2270445548654</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4802,10 +4802,10 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3278.866985367958</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3278.866985367958</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="U8" t="n">
-        <v>3025.336508641794</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="V8" t="n">
-        <v>2694.273621298224</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W8" t="n">
-        <v>2694.273621298224</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X8" t="n">
-        <v>2320.807863037144</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y8" t="n">
-        <v>2320.807863037144</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218345</v>
@@ -4884,13 +4884,13 @@
         <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215812</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.4020639300938</v>
+        <v>218.0173361775776</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300938</v>
+        <v>218.0173361775776</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>218.0173361775776</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>70.10424259518453</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>70.10424259518453</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218345</v>
@@ -4960,52 +4960,52 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962296</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S10" t="n">
-        <v>730.4944817024675</v>
+        <v>729.2011216450122</v>
       </c>
       <c r="T10" t="n">
-        <v>730.4944817024675</v>
+        <v>507.4345062145383</v>
       </c>
       <c r="U10" t="n">
-        <v>441.3916148281111</v>
+        <v>507.4345062145383</v>
       </c>
       <c r="V10" t="n">
-        <v>441.3916148281111</v>
+        <v>507.4345062145383</v>
       </c>
       <c r="W10" t="n">
-        <v>441.3916148281111</v>
+        <v>218.0173361775776</v>
       </c>
       <c r="X10" t="n">
-        <v>213.4020639300938</v>
+        <v>218.0173361775776</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.4020639300938</v>
+        <v>218.0173361775776</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,34 +5057,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="M12" t="n">
         <v>716.6687843969299</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>379.3891055132883</v>
+        <v>262.7528459758788</v>
       </c>
       <c r="C13" t="n">
-        <v>210.4529225853814</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="D13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>140.7528025687997</v>
@@ -5224,25 +5224,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.555541309953</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.480314654153</v>
+        <v>749.0240153319969</v>
       </c>
       <c r="V13" t="n">
-        <v>896.7958264482662</v>
+        <v>749.0240153319969</v>
       </c>
       <c r="W13" t="n">
-        <v>607.3786564113057</v>
+        <v>459.6068452950363</v>
       </c>
       <c r="X13" t="n">
-        <v>379.3891055132883</v>
+        <v>262.7528459758788</v>
       </c>
       <c r="Y13" t="n">
-        <v>379.3891055132883</v>
+        <v>262.7528459758788</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5285,34 +5285,34 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245697</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>590.909656468498</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1815.886107649657</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888944</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888944</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.787640536231</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="C16" t="n">
-        <v>159.787640536231</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="D16" t="n">
-        <v>159.787640536231</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E16" t="n">
-        <v>159.787640536231</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>140.7528025687997</v>
@@ -5458,28 +5458,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562356</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309953</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T16" t="n">
-        <v>1220.954076332895</v>
+        <v>971.0535382402015</v>
       </c>
       <c r="U16" t="n">
-        <v>931.8788496770924</v>
+        <v>681.9783115843993</v>
       </c>
       <c r="V16" t="n">
-        <v>677.1943614712055</v>
+        <v>427.2938233785137</v>
       </c>
       <c r="W16" t="n">
-        <v>387.7771914342483</v>
+        <v>314.609242191502</v>
       </c>
       <c r="X16" t="n">
-        <v>159.787640536231</v>
+        <v>314.609242191502</v>
       </c>
       <c r="Y16" t="n">
-        <v>159.787640536231</v>
+        <v>93.81666304797189</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,28 +5525,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>840.8417932021787</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2020.349486996073</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1643.635426776346</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="20">
@@ -5744,43 +5744,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>985.7836617409686</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C22" t="n">
-        <v>816.8474788130617</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>666.7308394007259</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>518.8177458183328</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>371.9277983204224</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>204.7316990353024</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U22" t="n">
-        <v>2160.315914855603</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V22" t="n">
-        <v>1905.631426649716</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W22" t="n">
-        <v>1616.214256612756</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>1388.224705714738</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y22" t="n">
-        <v>1167.432126571208</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,25 +6224,25 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6309,22 +6309,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>565.7099969556945</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>565.7099969556945</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,34 +6716,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,40 +6926,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7503,13 +7503,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7786,16 +7786,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>22.73433097327248</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>266.0969886978776</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>5.604874051551633</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.190246567156956e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33.14557607617694</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23464,22 +23464,22 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>30.82419606307127</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>80.10978030955478</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>174.9652629614494</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844822876</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>30.4888272187667</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>208.7894017452161</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>65.33133491134419</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459489</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1037785.522343505</v>
+        <v>1037785.522343504</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>337581.2828643771</v>
+        <v>337581.2828643773</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
         <v>332874.6015064074</v>
@@ -26329,31 +26329,31 @@
         <v>343037.3048682528</v>
       </c>
       <c r="H2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="J2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="K2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="N2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="O2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="P2" t="n">
         <v>343037.3048682528</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="P2" t="n">
-        <v>343037.3048682527</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78338.50263942256</v>
+        <v>78338.50263942257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405244</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835455</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="F4" t="n">
         <v>761.3882086835455</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26439,22 +26439,22 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
+        <v>101122.5298239072</v>
+      </c>
+      <c r="F5" t="n">
         <v>101122.5298239071</v>
-      </c>
-      <c r="F5" t="n">
-        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1177435.906064032</v>
+        <v>-1177502.738236548</v>
       </c>
       <c r="C6" t="n">
-        <v>147412.0675268748</v>
+        <v>147412.0675268746</v>
       </c>
       <c r="D6" t="n">
-        <v>147412.0675268747</v>
+        <v>147412.0675268742</v>
       </c>
       <c r="E6" t="n">
-        <v>-94421.7783335386</v>
+        <v>-94516.29686698499</v>
       </c>
       <c r="F6" t="n">
-        <v>230990.6834738166</v>
+        <v>230896.1649403701</v>
       </c>
       <c r="G6" t="n">
-        <v>225868.1910724542</v>
+        <v>225833.453147018</v>
       </c>
       <c r="H6" t="n">
-        <v>225868.1910724535</v>
+        <v>225833.4531470183</v>
       </c>
       <c r="I6" t="n">
-        <v>225868.1910724535</v>
+        <v>225833.4531470181</v>
       </c>
       <c r="J6" t="n">
-        <v>8336.988675176108</v>
+        <v>8302.250749740488</v>
       </c>
       <c r="K6" t="n">
-        <v>225868.1910724537</v>
+        <v>225833.453147018</v>
       </c>
       <c r="L6" t="n">
-        <v>225868.1910724533</v>
+        <v>225833.4531470178</v>
       </c>
       <c r="M6" t="n">
-        <v>140813.1631369418</v>
+        <v>140778.4252115063</v>
       </c>
       <c r="N6" t="n">
-        <v>225868.1910724538</v>
+        <v>225833.4531470179</v>
       </c>
       <c r="O6" t="n">
-        <v>225868.1910724539</v>
+        <v>225833.4531470177</v>
       </c>
       <c r="P6" t="n">
-        <v>225868.1910724536</v>
+        <v>225833.453147018</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022931</v>
@@ -26802,10 +26802,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>65.72441821771685</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>131.4600423254942</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>151.7763605000402</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>64.83610495833278</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>67.30010522656391</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>101.8363156449106</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>234.343307004583</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>62.91631390937359</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>40.83191932994291</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>162.4696033576571</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
-        <v>1.280426456881145</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-3.348081657766396e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28542,10 +28542,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="W16" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28995,10 +28995,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,10 +31513,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
@@ -31525,31 +31525,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
         <v>19.17787942451121</v>
@@ -31598,43 +31598,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138789</v>
+        <v>508.956561913878</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,19 +31677,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883116</v>
@@ -31704,13 +31704,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>430.4001870301139</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727245</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071787</v>
@@ -32072,13 +32072,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473074</v>
@@ -32096,10 +32096,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635139</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.6544928674244</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32321,31 +32321,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221144</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,16 +33260,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,13 +34375,13 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340039</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L10" t="n">
         <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N10" t="n">
         <v>173.0392293230784</v>
@@ -35346,10 +35346,10 @@
         <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>291.8458072502397</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507062</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238455</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674332</v>
@@ -35744,10 +35744,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>150.1270658774924</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077842</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060468</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066272</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,13 +38023,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
